--- a/创业启示录.xlsx
+++ b/创业启示录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理篇" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>思考点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司应该能够提供一个汇总全公司业务的入口，所有公司的员工的想法、思维火花都可以随时通过线上形式进行反馈，专门设置一个团队，这个团队的人员应该具备比较资深的能力，去逐一审核确认这些想法哪些是真正的创意点，对于采纳的想法进行真实的奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司应该设立一个智囊团，专门服务与公司的策略与发展，成员数量不宜很多，但是每一位都应该是非常资深的分析专家，对于公司的发展方向与策略应该通过智囊团去发现，智囊团可以定期向公司吸收成员，通过面试即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,13 +52,29 @@
   </si>
   <si>
     <t>如果对某一块业务不是很熟悉，上来一定要给团队充分的自主权利，如果团队未达到预期再进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门一多，最忌讳的事情是本部门本职工作还没有做好，就想拿其它部门的事情，且部门之间，甚至同一部门，不同组之间存在比较严重的部门墙，内耗太重，严重影响了公司运转效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太多的员工KPI导向，太短视，如果公司所有人都只关注当前的问题，而不在意未来的规划，会出比较严重的问题，尤其是创业者更不能被下面的员工忽悠只在意当前的事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司应该能够提供一个汇总全公司业务的入口(比如微信群等)，所有公司的员工的想法、思维火花都可以随时通过线上形式进行反馈，专门设置一个团队，这个团队的人员应该具备比较资深的能力，去逐一审核确认这些想法哪些是真正的创意点，对于采纳的想法进行真实的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的人是多线程，或者说有的职位可以多线程，有的职位或者有的人适合单线程工作模式，对于不同类型的人，如果线程分配错误，会严重影响到对应的工作效率和工作积极性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +145,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,12 +449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20170815</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -447,7 +462,7 @@
         <v>20170816</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
@@ -455,7 +470,7 @@
         <v>20170818</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.2">
@@ -463,7 +478,7 @@
         <v>20170818</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -471,7 +486,7 @@
         <v>20170822</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -479,16 +494,32 @@
         <v>20170824</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>20170904</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>20170905</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>20171025</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -497,7 +528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -522,7 +553,7 @@
         <v>20170815</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
